--- a/questionnaires/age_gender.xlsx
+++ b/questionnaires/age_gender.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/videos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3CD8B-8D40-9C40-9A49-E51C7B4C4AC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F593EE25-6F22-F441-B45A-2938F41E43F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{ECEA8A6B-680C-224B-93D4-72CFD54C2C31}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>Index</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>65+</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520522BB-6EA2-1C4F-ADBF-DCC98A4DE20B}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="E28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2603,46 +2606,134 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
+      <c r="A28" s="5">
+        <v>3026</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7">
+        <v>724</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2020</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28" si="2">SUM(L28:AC28)*1000</f>
+        <v>39837466</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" ref="H28" si="3">G28-600*L28</f>
+        <v>38456295.399999999</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1982.664</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2177.5700000000002</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2461.5189999999998</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2301.951</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2124.6309999999999</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2273.7550000000001</v>
+      </c>
+      <c r="O28" s="9">
+        <v>2503.0790000000002</v>
+      </c>
+      <c r="P28" s="9">
+        <v>3087.116</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>3895.9969999999998</v>
+      </c>
+      <c r="R28" s="9">
+        <v>3960.0709999999999</v>
+      </c>
+      <c r="S28" s="9">
+        <v>3687.98</v>
+      </c>
+      <c r="T28" s="9">
+        <v>3479.2060000000001</v>
+      </c>
+      <c r="U28" s="9">
+        <v>3047.3</v>
+      </c>
+      <c r="V28" s="9">
+        <v>2488.1489999999999</v>
+      </c>
+      <c r="W28" s="9">
+        <v>2223.59</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1799.8409999999999</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>1343.798</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>1030.1369999999999</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>461.43900000000002</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>116.301</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>13.125</v>
+      </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I29" s="8"/>
-      <c r="M29" s="11"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="8">
+        <f>(M29*(0.4*M28+N28)+O29*SUM(O28:T28)+U29*SUM(U28:V28)+W29*SUM(W28:AD28))/(0.4*M28+SUM(N28:AD28))</f>
+        <v>0.97448244785232785</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2656,10 +2747,10 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4161,11 +4252,115 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="I15" s="8"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="A15" s="5">
+        <v>3026</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7">
+        <v>724</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(Q15:AH15)*1000</f>
+        <v>39837466</v>
+      </c>
+      <c r="H15" s="8">
+        <f>G15-600*Q15</f>
+        <v>38456295.399999999</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15" si="7">(0.4*Q15+R15)/(0.4*Q15+SUM(R15:AH15))</f>
+        <v>7.9191491752479096E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15" si="8">(S15+T15)/(0.4*Q15+SUM(R15:AH15))</f>
+        <v>0.12421461688688819</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" ref="K15" si="9">SUM(U15:W15)/(0.4*Q15+SUM(R15:AH15))</f>
+        <v>0.28456157532012299</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" ref="L15" si="10">SUM(X15:Z15)/(0.4*Q15+SUM(R15:AH15))</f>
+        <v>0.26561284423668119</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" ref="M15" si="11">SUM(AA15:AH15)/(0.4*Q15+SUM(R15:AH15))</f>
+        <v>0.24641947180382848</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1982.664</v>
+      </c>
+      <c r="O15" s="9">
+        <v>2177.5700000000002</v>
+      </c>
+      <c r="P15" s="9">
+        <v>2461.5189999999998</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>2301.951</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2124.6309999999999</v>
+      </c>
+      <c r="S15" s="9">
+        <v>2273.7550000000001</v>
+      </c>
+      <c r="T15" s="9">
+        <v>2503.0790000000002</v>
+      </c>
+      <c r="U15" s="9">
+        <v>3087.116</v>
+      </c>
+      <c r="V15" s="9">
+        <v>3895.9969999999998</v>
+      </c>
+      <c r="W15" s="9">
+        <v>3960.0709999999999</v>
+      </c>
+      <c r="X15" s="9">
+        <v>3687.98</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>3479.2060000000001</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>3047.3</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>2488.1489999999999</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>2223.59</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>1799.8409999999999</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>1343.798</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>1030.1369999999999</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>461.43900000000002</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>116.301</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>13.125</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="I16" s="8"/>
